--- a/data/match_2.xlsx
+++ b/data/match_2.xlsx
@@ -8,19 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton.shevchuk\dev\euroleague\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105B7A0F-C4FA-4107-8F75-DDA986EA8AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549AE362-A786-4709-9D46-9FF22D5DF011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="51">
   <si>
     <t>№</t>
   </si>
@@ -129,16 +141,10 @@
     <t>2:2</t>
   </si>
   <si>
-    <t>Фёдоров Михаил</t>
-  </si>
-  <si>
     <t>Конаков Никита</t>
   </si>
   <si>
     <t>0:0</t>
-  </si>
-  <si>
-    <t>Оксанич Кирилл</t>
   </si>
   <si>
     <t>Зубатов Михаил</t>
@@ -549,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W20"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,7 +639,7 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C2">
         <v>7</v>
@@ -681,13 +687,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="S2">
         <v>2</v>
       </c>
       <c r="T2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -846,7 +852,7 @@
         <v>13.5</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5">
         <v>8</v>
@@ -900,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="T5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -917,7 +923,7 @@
         <v>9.5</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -988,7 +994,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -1000,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1048,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -1059,7 +1065,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8">
         <v>11</v>
@@ -1101,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -1130,7 +1136,7 @@
         <v>13.5</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1148,7 +1154,7 @@
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1172,7 +1178,7 @@
         <v>3</v>
       </c>
       <c r="P9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -1190,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="W9">
         <v>0</v>
@@ -1272,13 +1278,13 @@
         <v>13.5</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C11">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1332,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W11">
         <v>0</v>
@@ -1414,7 +1420,7 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -1479,7 +1485,7 @@
         <v>9.5</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C14">
         <v>10</v>
@@ -1527,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="S14">
         <v>2</v>
@@ -1562,10 +1568,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H15" t="s">
         <v>22</v>
@@ -1580,16 +1586,16 @@
         <v>2</v>
       </c>
       <c r="L15" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P15" t="s">
         <v>27</v>
@@ -1598,16 +1604,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="S15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V15" t="s">
         <v>27</v>
@@ -1618,13 +1624,13 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>9.5</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1651,7 +1657,7 @@
         <v>2</v>
       </c>
       <c r="L16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1663,10 +1669,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R16" t="s">
         <v>22</v>
@@ -1681,30 +1687,27 @@
         <v>3</v>
       </c>
       <c r="V16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="C17">
-        <v>20</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1716,10 +1719,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L17" t="s">
         <v>24</v>
@@ -1728,16 +1731,16 @@
         <v>0</v>
       </c>
       <c r="N17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R17" t="s">
         <v>22</v>
@@ -1746,51 +1749,51 @@
         <v>5</v>
       </c>
       <c r="T17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U17">
-        <v>3</v>
-      </c>
-      <c r="V17" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="W17">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1819,155 +1822,16 @@
       <c r="U18">
         <v>0</v>
       </c>
+      <c r="V18" t="s">
+        <v>40</v>
+      </c>
       <c r="W18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>6</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19" t="s">
-        <v>24</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19" t="s">
-        <v>21</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19" t="s">
-        <v>21</v>
-      </c>
-      <c r="M19">
-        <v>3</v>
-      </c>
-      <c r="N19" t="s">
-        <v>21</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19" t="s">
-        <v>28</v>
-      </c>
-      <c r="S19">
-        <v>3</v>
-      </c>
-      <c r="T19" t="s">
-        <v>27</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19" t="s">
-        <v>21</v>
-      </c>
-      <c r="W19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>13.5</v>
-      </c>
-      <c r="B20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20">
-        <v>8</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20">
-        <v>3</v>
-      </c>
-      <c r="J20" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20" t="s">
-        <v>44</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20" t="s">
-        <v>22</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20" t="s">
-        <v>22</v>
-      </c>
-      <c r="S20">
-        <v>5</v>
-      </c>
-      <c r="T20" t="s">
-        <v>22</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20" t="s">
-        <v>42</v>
-      </c>
-      <c r="W20">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W20">
-    <sortCondition ref="B1:B20"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W18">
+    <sortCondition ref="B1:B18"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
